--- a/AAII_Financials/Quarterly/BAESY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAESY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="92">
   <si>
     <t>BAESY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,26 +665,27 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
+      <c r="D7" s="2">
+        <v>44926</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>3</v>
@@ -707,13 +708,16 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>14292800</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>3</v>
@@ -736,8 +740,11 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -765,8 +772,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -794,8 +804,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -807,8 +820,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -836,8 +850,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -865,66 +882,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -933,13 +959,14 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>12610300</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>3</v>
@@ -962,13 +989,16 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>1682500</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>3</v>
@@ -991,8 +1021,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1004,13 +1037,14 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-181200</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>3</v>
@@ -1033,8 +1067,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1062,42 +1099,48 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>1501400</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>3</v>
@@ -1120,13 +1163,16 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>227100</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>3</v>
@@ -1149,8 +1195,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1178,13 +1227,16 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>1274300</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>3</v>
@@ -1207,13 +1259,16 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>1211000</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>3</v>
@@ -1236,8 +1291,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1265,37 +1323,43 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1323,8 +1387,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1352,13 +1419,16 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>181200</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>3</v>
@@ -1381,13 +1451,16 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>1211000</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>3</v>
@@ -1410,8 +1483,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1439,13 +1515,16 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>1211000</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>3</v>
@@ -1468,18 +1547,21 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>3</v>
+      <c r="D38" s="2">
+        <v>44926</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>3</v>
@@ -1502,8 +1584,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1515,8 +1600,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1528,13 +1614,14 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>3</v>
+      <c r="D41" s="3">
+        <v>3855200</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>3</v>
@@ -1557,13 +1644,16 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>312700</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -1586,13 +1676,16 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>7815800</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
@@ -1615,13 +1708,16 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
+      <c r="D44" s="3">
+        <v>1211000</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1644,42 +1740,48 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>3</v>
+      <c r="D46" s="3">
+        <v>13194700</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>3</v>
@@ -1702,13 +1804,16 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>1866200</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1731,13 +1836,16 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
+      <c r="D48" s="3">
+        <v>5860300</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>3</v>
@@ -1760,13 +1868,16 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>15688700</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>3</v>
@@ -1789,8 +1900,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1818,8 +1932,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1847,13 +1964,16 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>2428200</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -1876,8 +1996,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1905,13 +2028,16 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>3</v>
+      <c r="D54" s="3">
+        <v>39038000</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>3</v>
@@ -1934,8 +2060,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1947,8 +2076,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1960,13 +2090,14 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>6191600</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -1989,13 +2120,16 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>364800</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2018,13 +2152,16 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>5660500</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -2047,13 +2184,16 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
+      <c r="D60" s="3">
+        <v>12216900</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>3</v>
@@ -2076,13 +2216,16 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>8144600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2105,13 +2248,16 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>4531400</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2134,8 +2280,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2163,8 +2312,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2192,8 +2344,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2221,13 +2376,16 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>3</v>
+      <c r="D66" s="3">
+        <v>25122500</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>3</v>
@@ -2250,8 +2408,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2263,8 +2424,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2292,8 +2454,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2321,37 +2486,43 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>3</v>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2379,13 +2550,16 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>9590100</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2408,8 +2582,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2437,8 +2614,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2466,8 +2646,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2495,13 +2678,16 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>13915600</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>3</v>
@@ -2524,8 +2710,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2553,18 +2742,21 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>3</v>
+      <c r="D80" s="2">
+        <v>44926</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>3</v>
@@ -2587,13 +2779,16 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>1211000</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>3</v>
@@ -2616,8 +2811,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2629,37 +2827,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2687,8 +2889,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2716,8 +2921,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2745,8 +2953,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2774,8 +2985,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2803,37 +3017,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2845,37 +3065,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2903,8 +3127,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2932,37 +3159,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2974,8 +3207,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3003,8 +3237,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3032,8 +3269,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3061,8 +3301,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3090,91 +3333,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BAESY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAESY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="92">
   <si>
     <t>BAESY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,33 +665,35 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
+      <c r="F7" s="2">
+        <v>44742</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
@@ -711,19 +713,22 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>14292800</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
+        <v>13936500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>14598000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>12342200</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -743,8 +748,11 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -775,8 +783,11 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -807,8 +818,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -821,8 +835,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -853,8 +868,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -885,8 +903,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -911,14 +932,17 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -943,14 +967,17 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -960,19 +987,20 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12610300</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
+        <v>12373900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>12879600</v>
+      </c>
+      <c r="F17" s="3">
+        <v>11039500</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -992,19 +1020,22 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1682500</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+        <v>1562600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1718500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1302800</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1024,8 +1055,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1038,19 +1072,20 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-181200</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+        <v>-44400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-185000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-315600</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1070,13 +1105,16 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>2007400</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1102,8 +1140,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1128,25 +1169,28 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1501400</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
+        <v>1518200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1533400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>987200</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1166,19 +1210,22 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>227100</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+        <v>244600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>231900</v>
+      </c>
+      <c r="F24" s="3">
+        <v>167300</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1198,8 +1245,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1230,19 +1280,22 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1274300</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+        <v>1273600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1301500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>819900</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1262,19 +1315,22 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1211000</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+        <v>1222900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1236900</v>
+      </c>
+      <c r="F27" s="3">
+        <v>779400</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1294,8 +1350,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1326,8 +1385,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1352,14 +1414,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1390,8 +1455,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1422,19 +1490,22 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>181200</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+        <v>44400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>185000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>315600</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1454,19 +1525,22 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1211000</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+        <v>1222900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1236900</v>
+      </c>
+      <c r="F33" s="3">
+        <v>779400</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1486,8 +1560,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1518,19 +1595,22 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1211000</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+        <v>1222900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1236900</v>
+      </c>
+      <c r="F35" s="3">
+        <v>779400</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1550,24 +1630,27 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
+      <c r="F38" s="2">
+        <v>44742</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
@@ -1587,8 +1670,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1601,8 +1687,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1615,16 +1702,17 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3855200</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
+        <v>4060400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3937500</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1647,16 +1735,19 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>312700</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
+        <v>257300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>319400</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1679,16 +1770,19 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7815800</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
+        <v>8226000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>7982700</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1711,16 +1805,19 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1211000</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
+        <v>1326900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1236900</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -1743,8 +1840,11 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1769,22 +1869,25 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13194700</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
+        <v>13870600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>13476500</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1807,16 +1910,19 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1866200</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+        <v>1795800</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1906000</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1839,16 +1945,19 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5860300</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
+        <v>5960100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5985500</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1871,16 +1980,19 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15688700</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
+        <v>15374900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>16023700</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1903,8 +2015,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1935,8 +2050,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1967,16 +2085,19 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2428200</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+        <v>2238100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2480100</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1999,8 +2120,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2031,16 +2155,19 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>39038000</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
+        <v>39239400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>39871800</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -2063,8 +2190,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2077,8 +2207,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2091,16 +2222,17 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6191600</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
+        <v>6279500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6323800</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -2123,16 +2255,19 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>364800</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+        <v>315600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>372600</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2155,16 +2290,19 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5660500</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
+        <v>6389700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5781400</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -2187,16 +2325,19 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12216900</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
+        <v>12984800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>12477800</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -2219,16 +2360,19 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8144600</v>
+        <v>8061300</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>8318600</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2251,16 +2395,19 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4531400</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+        <v>4479900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4628200</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2283,8 +2430,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2315,8 +2465,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2347,8 +2500,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2379,16 +2535,19 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25122500</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
+        <v>25783200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>25659000</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2411,8 +2570,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2425,8 +2587,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2457,8 +2620,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2489,8 +2655,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2515,14 +2684,17 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3" t="s">
-        <v>3</v>
+      <c r="K70" s="3">
+        <v>0</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2553,16 +2725,19 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9590100</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
+        <v>11766900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>9795000</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2585,8 +2760,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2617,8 +2795,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2649,8 +2830,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2681,16 +2865,19 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13915600</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
+        <v>13456200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>14212800</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2713,8 +2900,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2745,24 +2935,27 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
+      <c r="F80" s="2">
+        <v>44742</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
@@ -2782,19 +2975,22 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1211000</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
+        <v>1222900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1236900</v>
+      </c>
+      <c r="F81" s="3">
+        <v>779400</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2814,8 +3010,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2828,40 +3027,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+        <v>489200</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2892,8 +3095,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2924,8 +3130,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2956,8 +3165,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2988,8 +3200,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3020,40 +3235,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+        <v>1880700</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3066,13 +3287,14 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-381000</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3092,14 +3314,17 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3130,8 +3355,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3162,40 +3390,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+        <v>-163500</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3208,13 +3442,14 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-643800</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3240,8 +3475,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3272,8 +3510,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3304,8 +3545,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3336,100 +3580,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+        <v>-1520800</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+        <v>-73500</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+        <v>122900</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BAESY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAESY_QTR_FIN.xlsx
@@ -722,13 +722,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>13936500</v>
+        <v>13642900</v>
       </c>
       <c r="E8" s="3">
-        <v>14598000</v>
+        <v>14290500</v>
       </c>
       <c r="F8" s="3">
-        <v>12342200</v>
+        <v>12082200</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -994,13 +994,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12373900</v>
+        <v>12113200</v>
       </c>
       <c r="E17" s="3">
-        <v>12879600</v>
+        <v>12608200</v>
       </c>
       <c r="F17" s="3">
-        <v>11039500</v>
+        <v>10806900</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -1029,13 +1029,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1562600</v>
+        <v>1529700</v>
       </c>
       <c r="E18" s="3">
-        <v>1718500</v>
+        <v>1682300</v>
       </c>
       <c r="F18" s="3">
-        <v>1302800</v>
+        <v>1275300</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1079,13 +1079,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-44400</v>
+        <v>-43400</v>
       </c>
       <c r="E20" s="3">
-        <v>-185000</v>
+        <v>-181100</v>
       </c>
       <c r="F20" s="3">
-        <v>-315600</v>
+        <v>-308900</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1114,7 +1114,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2007400</v>
+        <v>1965100</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1184,13 +1184,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1518200</v>
+        <v>1486200</v>
       </c>
       <c r="E23" s="3">
-        <v>1533400</v>
+        <v>1501100</v>
       </c>
       <c r="F23" s="3">
-        <v>987200</v>
+        <v>966400</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1219,13 +1219,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>244600</v>
+        <v>239400</v>
       </c>
       <c r="E24" s="3">
-        <v>231900</v>
+        <v>227000</v>
       </c>
       <c r="F24" s="3">
-        <v>167300</v>
+        <v>163800</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1289,13 +1289,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1273600</v>
+        <v>1246800</v>
       </c>
       <c r="E26" s="3">
-        <v>1301500</v>
+        <v>1274100</v>
       </c>
       <c r="F26" s="3">
-        <v>819900</v>
+        <v>802700</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1324,13 +1324,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1222900</v>
+        <v>1197200</v>
       </c>
       <c r="E27" s="3">
-        <v>1236900</v>
+        <v>1210800</v>
       </c>
       <c r="F27" s="3">
-        <v>779400</v>
+        <v>763000</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1499,13 +1499,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>44400</v>
+        <v>43400</v>
       </c>
       <c r="E32" s="3">
-        <v>185000</v>
+        <v>181100</v>
       </c>
       <c r="F32" s="3">
-        <v>315600</v>
+        <v>308900</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1534,13 +1534,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1222900</v>
+        <v>1197200</v>
       </c>
       <c r="E33" s="3">
-        <v>1236900</v>
+        <v>1210800</v>
       </c>
       <c r="F33" s="3">
-        <v>779400</v>
+        <v>763000</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1604,13 +1604,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1222900</v>
+        <v>1197200</v>
       </c>
       <c r="E35" s="3">
-        <v>1236900</v>
+        <v>1210800</v>
       </c>
       <c r="F35" s="3">
-        <v>779400</v>
+        <v>763000</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1709,10 +1709,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4060400</v>
+        <v>3974900</v>
       </c>
       <c r="E41" s="3">
-        <v>3937500</v>
+        <v>3854500</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1744,10 +1744,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>257300</v>
+        <v>251800</v>
       </c>
       <c r="E42" s="3">
-        <v>319400</v>
+        <v>312600</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1779,10 +1779,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8226000</v>
+        <v>8052700</v>
       </c>
       <c r="E43" s="3">
-        <v>7982700</v>
+        <v>7814500</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1814,10 +1814,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1326900</v>
+        <v>1298900</v>
       </c>
       <c r="E44" s="3">
-        <v>1236900</v>
+        <v>1210800</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -1884,10 +1884,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13870600</v>
+        <v>13578400</v>
       </c>
       <c r="E46" s="3">
-        <v>13476500</v>
+        <v>13192500</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1919,10 +1919,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1795800</v>
+        <v>1757900</v>
       </c>
       <c r="E47" s="3">
-        <v>1906000</v>
+        <v>1865900</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1954,10 +1954,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5960100</v>
+        <v>5834500</v>
       </c>
       <c r="E48" s="3">
-        <v>5985500</v>
+        <v>5859400</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1989,10 +1989,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15374900</v>
+        <v>15051000</v>
       </c>
       <c r="E49" s="3">
-        <v>16023700</v>
+        <v>15686100</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -2094,10 +2094,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2238100</v>
+        <v>2190900</v>
       </c>
       <c r="E52" s="3">
-        <v>2480100</v>
+        <v>2427900</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -2164,10 +2164,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>39239400</v>
+        <v>38412700</v>
       </c>
       <c r="E54" s="3">
-        <v>39871800</v>
+        <v>39031800</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -2229,10 +2229,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6279500</v>
+        <v>6147200</v>
       </c>
       <c r="E57" s="3">
-        <v>6323800</v>
+        <v>6190600</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -2264,10 +2264,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>315600</v>
+        <v>308900</v>
       </c>
       <c r="E58" s="3">
-        <v>372600</v>
+        <v>364700</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2299,10 +2299,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6389700</v>
+        <v>6255100</v>
       </c>
       <c r="E59" s="3">
-        <v>5781400</v>
+        <v>5659600</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -2334,10 +2334,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12984800</v>
+        <v>12711200</v>
       </c>
       <c r="E60" s="3">
-        <v>12477800</v>
+        <v>12214900</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -2369,10 +2369,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8061300</v>
+        <v>7891500</v>
       </c>
       <c r="E61" s="3">
-        <v>8318600</v>
+        <v>8143300</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2404,10 +2404,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4479900</v>
+        <v>4385500</v>
       </c>
       <c r="E62" s="3">
-        <v>4628200</v>
+        <v>4530700</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2544,10 +2544,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25783200</v>
+        <v>25240000</v>
       </c>
       <c r="E66" s="3">
-        <v>25659000</v>
+        <v>25118400</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2734,10 +2734,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11766900</v>
+        <v>11519000</v>
       </c>
       <c r="E72" s="3">
-        <v>9795000</v>
+        <v>9588600</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2874,10 +2874,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13456200</v>
+        <v>13172700</v>
       </c>
       <c r="E76" s="3">
-        <v>14212800</v>
+        <v>13913300</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2984,13 +2984,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1222900</v>
+        <v>1197200</v>
       </c>
       <c r="E81" s="3">
-        <v>1236900</v>
+        <v>1210800</v>
       </c>
       <c r="F81" s="3">
-        <v>779400</v>
+        <v>763000</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -3034,7 +3034,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>489200</v>
+        <v>478900</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>3</v>
@@ -3244,7 +3244,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1880700</v>
+        <v>1841100</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>3</v>
@@ -3399,7 +3399,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-163500</v>
+        <v>-160000</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>3</v>
@@ -3449,7 +3449,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-643800</v>
+        <v>-630200</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3589,7 +3589,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1520800</v>
+        <v>-1488700</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
@@ -3624,7 +3624,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-73500</v>
+        <v>-72000</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>3</v>
@@ -3659,7 +3659,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>122900</v>
+        <v>120300</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>3</v>
